--- a/output/mundubat.xlsx
+++ b/output/mundubat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -717,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ85"/>
+  <dimension ref="A1:AM85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -726,7 +735,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,10 +844,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -937,15 +955,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>1801500</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1044,15 +1071,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>930171</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1151,15 +1187,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>4770290</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1258,15 +1303,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>628175</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1365,15 +1419,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>393041</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1472,15 +1535,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>608987</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1579,15 +1651,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>3088181</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1686,15 +1767,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>483494</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1793,15 +1883,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>378773</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1900,15 +1999,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>385823</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2007,15 +2115,24 @@
         <v>0.09859291115039309</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>536855</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2114,15 +2231,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>49220</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2221,15 +2347,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>2791798</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2328,15 +2463,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>1300549</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2435,15 +2579,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>355232</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2542,15 +2695,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>391302</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2649,15 +2811,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>351784</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2756,15 +2927,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>551018</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2863,15 +3043,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>657071</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2970,15 +3159,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>298569</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3077,15 +3275,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>280487</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3184,15 +3391,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>822360</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3291,15 +3507,24 @@
         <v>0.07894934351528111</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>629041</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3398,15 +3623,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>92174</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3505,15 +3739,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>1174248</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3612,15 +3855,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>1135764</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3719,15 +3971,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>340462</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3826,15 +4087,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>478140</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3933,15 +4203,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>1589525</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4040,15 +4319,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>1107936</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4147,15 +4435,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>1</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>413882</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4254,15 +4551,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>518297</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4361,15 +4667,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>381835</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4468,15 +4783,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>507338</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4575,15 +4899,24 @@
         <v>0.05998187804976628</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>1377640</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4682,15 +5015,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>215248.5</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4789,15 +5131,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>632479</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4896,15 +5247,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>84675</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5003,15 +5363,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>33545</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5110,15 +5479,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>219314</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5217,15 +5595,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>203666</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5324,15 +5711,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>152201</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5431,15 +5827,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>106199.5</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5538,15 +5943,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>524996.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5645,15 +6059,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>71245.5</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5752,15 +6175,24 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>98908</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5859,15 +6291,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>215248.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5966,15 +6407,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>632479</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6073,15 +6523,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>84675</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6180,15 +6639,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>1</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>33545</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6287,15 +6755,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>219314</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6394,15 +6871,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>203666</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6501,15 +6987,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>152201</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6608,15 +7103,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>106199.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6715,15 +7219,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>524996.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6822,15 +7335,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>71245.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6929,15 +7451,24 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>98908</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7036,15 +7567,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>126273.835</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7143,15 +7683,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>1</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>475088.93</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7250,15 +7799,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>147138.49</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7357,15 +7915,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>1</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>184673.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7464,15 +8031,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>1</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>77907.955</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7571,15 +8147,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>1</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>72764.895</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7678,15 +8263,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>160736.37</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7785,15 +8379,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>64417.145</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7892,15 +8495,24 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>311184.6</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7999,15 +8611,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>126273.835</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8106,15 +8727,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>475088.93</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8213,15 +8843,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>1</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>147138.49</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8320,15 +8959,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>184673.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8427,15 +9075,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>77907.955</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8534,15 +9191,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>72764.895</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8641,15 +9307,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>160736.37</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8748,15 +9423,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>64417.145</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8855,15 +9539,24 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>311184.6</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8962,15 +9655,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>25200</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9069,21 +9771,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>632366</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9176,15 +9887,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>279518</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9283,15 +10003,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>949000</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9390,15 +10119,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>230877</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9497,15 +10235,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>150000</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9604,15 +10351,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>225285</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9711,15 +10467,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>218116</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9818,9 +10583,18 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1988</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>725000</v>
       </c>
     </row>

--- a/output/mundubat.xlsx
+++ b/output/mundubat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -726,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM85"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,7 +741,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,10 +859,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -913,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U2">
         <v>28</v>
@@ -949,30 +961,36 @@
         <v>1071699</v>
       </c>
       <c r="AG2">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH2">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI2">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ2">
         <v>1988</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>1801500</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1029,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U3">
         <v>28</v>
@@ -1065,30 +1083,36 @@
         <v>2214761</v>
       </c>
       <c r="AG3">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH3">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI3">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ3">
         <v>1988</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>930171</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1145,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U4">
         <v>28</v>
@@ -1181,30 +1205,36 @@
         <v>4093293</v>
       </c>
       <c r="AG4">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH4">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI4">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ4">
         <v>1988</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>4770290</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1261,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U5">
         <v>28</v>
@@ -1297,30 +1327,36 @@
         <v>2565774</v>
       </c>
       <c r="AG5">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH5">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI5">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ5">
         <v>1988</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>628175</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1377,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U6">
         <v>28</v>
@@ -1413,30 +1449,36 @@
         <v>3881838</v>
       </c>
       <c r="AG6">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH6">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI6">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ6">
         <v>1988</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>393041</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1493,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U7">
         <v>28</v>
@@ -1529,30 +1571,36 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH7">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI7">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ7">
         <v>1988</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>608987</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1609,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U8">
         <v>28</v>
@@ -1645,30 +1693,36 @@
         <v>4231773</v>
       </c>
       <c r="AG8">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH8">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI8">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ8">
         <v>1988</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>3088181</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1725,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U9">
         <v>28</v>
@@ -1761,30 +1815,36 @@
         <v>4266738</v>
       </c>
       <c r="AG9">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH9">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI9">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ9">
         <v>1988</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>483494</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1841,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U10">
         <v>28</v>
@@ -1877,30 +1937,36 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH10">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI10">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ10">
         <v>1988</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>378773</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1957,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U11">
         <v>28</v>
@@ -1993,30 +2059,36 @@
         <v>2282830</v>
       </c>
       <c r="AG11">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH11">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI11">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ11">
         <v>1988</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>385823</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2073,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>1599851</v>
+        <v>1650779</v>
       </c>
       <c r="U12">
         <v>28</v>
@@ -2109,30 +2181,36 @@
         <v>2656206</v>
       </c>
       <c r="AG12">
-        <v>16226836</v>
+        <v>16277764</v>
       </c>
       <c r="AH12">
-        <v>0.09859291115039309</v>
+        <v>0.1014131302063355</v>
       </c>
       <c r="AI12">
+        <v>0.5017346977140104</v>
+      </c>
+      <c r="AJ12">
         <v>1988</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>536855</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2189,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U13">
         <v>31</v>
@@ -2225,30 +2303,36 @@
         <v>17422722</v>
       </c>
       <c r="AG13">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH13">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI13">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ13">
         <v>1988</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>49220</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2305,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U14">
         <v>31</v>
@@ -2341,30 +2425,36 @@
         <v>4844720</v>
       </c>
       <c r="AG14">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH14">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI14">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ14">
         <v>1988</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>2791798</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2421,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U15">
         <v>31</v>
@@ -2457,30 +2547,36 @@
         <v>14532818.83333333</v>
       </c>
       <c r="AG15">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH15">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI15">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ15">
         <v>1988</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>1300549</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2537,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U16">
         <v>31</v>
@@ -2573,30 +2669,36 @@
         <v>10267085.83333333</v>
       </c>
       <c r="AG16">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH16">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI16">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ16">
         <v>1988</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>355232</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2653,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U17">
         <v>31</v>
@@ -2689,30 +2791,36 @@
         <v>5136929</v>
       </c>
       <c r="AG17">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH17">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI17">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ17">
         <v>1988</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17">
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>391302</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2769,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U18">
         <v>31</v>
@@ -2805,30 +2913,36 @@
         <v>18320809.5</v>
       </c>
       <c r="AG18">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH18">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI18">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ18">
         <v>1988</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>351784</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2885,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U19">
         <v>31</v>
@@ -2921,30 +3035,36 @@
         <v>0</v>
       </c>
       <c r="AG19">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH19">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI19">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ19">
         <v>1988</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>551018</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3001,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U20">
         <v>31</v>
@@ -3037,30 +3157,36 @@
         <v>22208778.83333333</v>
       </c>
       <c r="AG20">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH20">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI20">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ20">
         <v>1988</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>657071</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3117,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U21">
         <v>31</v>
@@ -3153,30 +3279,36 @@
         <v>38993399</v>
       </c>
       <c r="AG21">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH21">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI21">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ21">
         <v>1988</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>298569</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3233,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U22">
         <v>31</v>
@@ -3269,30 +3401,36 @@
         <v>1500000</v>
       </c>
       <c r="AG22">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH22">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI22">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ22">
         <v>1988</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>280487</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3349,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U23">
         <v>31</v>
@@ -3385,30 +3523,36 @@
         <v>25548911</v>
       </c>
       <c r="AG23">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH23">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI23">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ23">
         <v>1988</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>822360</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3465,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="T24">
-        <v>573289</v>
+        <v>574010</v>
       </c>
       <c r="U24">
         <v>31</v>
@@ -3501,30 +3645,36 @@
         <v>15091265.66666667</v>
       </c>
       <c r="AG24">
-        <v>7261479</v>
+        <v>7262200</v>
       </c>
       <c r="AH24">
-        <v>0.07894934351528111</v>
+        <v>0.0790407865385145</v>
       </c>
       <c r="AI24">
+        <v>0.362530500399328</v>
+      </c>
+      <c r="AJ24">
         <v>1988</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>629041</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3581,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="T25">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U25">
         <v>27</v>
@@ -3617,30 +3767,36 @@
         <v>1592777</v>
       </c>
       <c r="AG25">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH25">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI25">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ25">
         <v>1988</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>92174</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3697,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U26">
         <v>27</v>
@@ -3733,30 +3889,36 @@
         <v>1851881</v>
       </c>
       <c r="AG26">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH26">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI26">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ26">
         <v>1988</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>1174248</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3813,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U27">
         <v>27</v>
@@ -3849,30 +4011,36 @@
         <v>2140362</v>
       </c>
       <c r="AG27">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH27">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI27">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ27">
         <v>1988</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>1135764</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3929,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U28">
         <v>27</v>
@@ -3965,30 +4133,36 @@
         <v>2070562</v>
       </c>
       <c r="AG28">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH28">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI28">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ28">
         <v>1988</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>340462</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4045,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U29">
         <v>27</v>
@@ -4081,30 +4255,36 @@
         <v>2121035</v>
       </c>
       <c r="AG29">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH29">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI29">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ29">
         <v>1988</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>478140</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4161,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U30">
         <v>27</v>
@@ -4197,30 +4377,36 @@
         <v>2407765</v>
       </c>
       <c r="AG30">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH30">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI30">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ30">
         <v>1988</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>1589525</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4277,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="T31">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U31">
         <v>27</v>
@@ -4313,30 +4499,36 @@
         <v>1498796</v>
       </c>
       <c r="AG31">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH31">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI31">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ31">
         <v>1988</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>1107936</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4393,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U32">
         <v>27</v>
@@ -4429,30 +4621,36 @@
         <v>0</v>
       </c>
       <c r="AG32">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH32">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI32">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ32">
         <v>1988</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>1</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>413882</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4509,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U33">
         <v>27</v>
@@ -4545,30 +4743,36 @@
         <v>2169360</v>
       </c>
       <c r="AG33">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH33">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI33">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ33">
         <v>1988</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>518297</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4625,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="T34">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U34">
         <v>27</v>
@@ -4661,30 +4865,36 @@
         <v>0</v>
       </c>
       <c r="AG34">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH34">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI34">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ34">
         <v>1988</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
         <v>0</v>
       </c>
       <c r="AL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>381835</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4741,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="T35">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U35">
         <v>27</v>
@@ -4777,30 +4987,36 @@
         <v>1772730</v>
       </c>
       <c r="AG35">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH35">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI35">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ35">
         <v>1988</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>1</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>507338</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4857,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>627756</v>
+        <v>687376</v>
       </c>
       <c r="U36">
         <v>27</v>
@@ -4893,30 +5109,36 @@
         <v>2473942</v>
       </c>
       <c r="AG36">
-        <v>10465761</v>
+        <v>10525381</v>
       </c>
       <c r="AH36">
-        <v>0.05998187804976628</v>
+        <v>0.06530651954546823</v>
       </c>
       <c r="AI36">
+        <v>0.4026177294674654</v>
+      </c>
+      <c r="AJ36">
         <v>1988</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>1377640</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5015,24 +5237,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI37">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ37">
         <v>1988</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>215248.5</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5131,24 +5359,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI38">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ38">
         <v>1988</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>632479</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5247,24 +5481,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI39">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ39">
         <v>1988</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>84675</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5363,24 +5603,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI40">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ40">
         <v>1988</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>33545</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5479,24 +5725,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI41">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ41">
         <v>1988</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>219314</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5595,24 +5847,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI42">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ42">
         <v>1988</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>203666</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5711,24 +5969,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI43">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ43">
         <v>1988</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>152201</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5827,24 +6091,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI44">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ44">
         <v>1988</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>106199.5</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5943,24 +6213,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI45">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ45">
         <v>1988</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>524996.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6059,24 +6335,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI46">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ46">
         <v>1988</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>71245.5</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6175,24 +6457,30 @@
         <v>0.01624948517965365</v>
       </c>
       <c r="AI47">
+        <v>0.4372438955836586</v>
+      </c>
+      <c r="AJ47">
         <v>1988</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>98908</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6291,24 +6579,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI48">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ48">
         <v>1988</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>215248.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6407,24 +6701,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI49">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ49">
         <v>1988</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>632479</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6523,24 +6823,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI50">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ50">
         <v>1988</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>84675</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6639,24 +6945,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI51">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ51">
         <v>1988</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51">
         <v>1</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>33545</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6755,24 +7067,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI52">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ52">
         <v>1988</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>219314</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6871,24 +7189,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI53">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ53">
         <v>1988</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>203666</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6987,24 +7311,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI54">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ54">
         <v>1988</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL54">
         <v>1</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>152201</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7103,24 +7433,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI55">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ55">
         <v>1988</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>1</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>106199.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7219,24 +7555,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI56">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ56">
         <v>1988</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>524996.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7335,24 +7677,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI57">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ57">
         <v>1988</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>71245.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7451,24 +7799,30 @@
         <v>0.1163772090248139</v>
       </c>
       <c r="AI58">
+        <v>0.393908149886722</v>
+      </c>
+      <c r="AJ58">
         <v>1988</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>98908</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7567,24 +7921,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI59">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ59">
         <v>1988</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL59">
         <v>1</v>
       </c>
       <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>126273.835</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7683,24 +8043,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI60">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ60">
         <v>1988</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
         <v>1</v>
       </c>
       <c r="AM60">
+        <v>1</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>475088.93</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7799,24 +8165,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI61">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ61">
         <v>1988</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>147138.49</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7915,24 +8287,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI62">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ62">
         <v>1988</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL62">
         <v>1</v>
       </c>
       <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>184673.5</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8031,24 +8409,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI63">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ63">
         <v>1988</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL63">
         <v>1</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>77907.955</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8147,24 +8531,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI64">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ64">
         <v>1988</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL64">
         <v>1</v>
       </c>
       <c r="AM64">
+        <v>1</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>72764.895</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8263,24 +8653,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI65">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ65">
         <v>1988</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>160736.37</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8379,24 +8775,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI66">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ66">
         <v>1988</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66">
         <v>1</v>
       </c>
       <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>64417.145</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8495,24 +8897,30 @@
         <v>0.02425616245463794</v>
       </c>
       <c r="AI67">
+        <v>0.5072887849430959</v>
+      </c>
+      <c r="AJ67">
         <v>1988</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
         <v>0</v>
       </c>
       <c r="AL67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67">
+        <v>1</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>311184.6</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8611,24 +9019,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
         <v>1988</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>126273.835</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8727,24 +9141,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
         <v>1988</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>1</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>475088.93</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8843,24 +9263,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
         <v>1988</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
         <v>1</v>
       </c>
       <c r="AM70">
+        <v>1</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>147138.49</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8959,24 +9385,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
         <v>1988</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL71">
         <v>1</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>184673.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9075,24 +9507,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI72">
+        <v>0</v>
+      </c>
+      <c r="AJ72">
         <v>1988</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>1</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>77907.955</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9191,24 +9629,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI73">
+        <v>0</v>
+      </c>
+      <c r="AJ73">
         <v>1988</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL73">
         <v>1</v>
       </c>
       <c r="AM73">
+        <v>1</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>72764.895</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9307,24 +9751,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
         <v>1988</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>160736.37</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9423,24 +9873,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
         <v>1988</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL75">
         <v>1</v>
       </c>
       <c r="AM75">
+        <v>1</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>64417.145</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9539,24 +9995,30 @@
         <v>0.1877577534679147</v>
       </c>
       <c r="AI76">
+        <v>0</v>
+      </c>
+      <c r="AJ76">
         <v>1988</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
         <v>0</v>
       </c>
       <c r="AL76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM76">
+        <v>1</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>311184.6</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9655,24 +10117,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI77">
+        <v>0</v>
+      </c>
+      <c r="AJ77">
         <v>1988</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL77">
         <v>1</v>
       </c>
       <c r="AM77">
+        <v>1</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>25200</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9771,30 +10239,36 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI78">
+        <v>0</v>
+      </c>
+      <c r="AJ78">
         <v>1988</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL78">
         <v>1</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>632366</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -9887,24 +10361,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI79">
+        <v>0</v>
+      </c>
+      <c r="AJ79">
         <v>1988</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL79">
         <v>1</v>
       </c>
       <c r="AM79">
+        <v>1</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>279518</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10003,24 +10483,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI80">
+        <v>0</v>
+      </c>
+      <c r="AJ80">
         <v>1988</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL80">
         <v>1</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>949000</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10119,24 +10605,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI81">
+        <v>0</v>
+      </c>
+      <c r="AJ81">
         <v>1988</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL81">
         <v>1</v>
       </c>
       <c r="AM81">
+        <v>1</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>230877</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10235,24 +10727,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI82">
+        <v>0</v>
+      </c>
+      <c r="AJ82">
         <v>1988</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>1</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>150000</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10351,24 +10849,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI83">
+        <v>0</v>
+      </c>
+      <c r="AJ83">
         <v>1988</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>225285</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10467,24 +10971,30 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI84">
+        <v>0</v>
+      </c>
+      <c r="AJ84">
         <v>1988</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>1</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>218116</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -10583,18 +11093,24 @@
         <v>0.02685630063140491</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
         <v>1988</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>1</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>725000</v>
       </c>
     </row>

--- a/output/mundubat.xlsx
+++ b/output/mundubat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -371,9 +371,6 @@
   </si>
   <si>
     <t>2016_cuba</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2016_el salvador</t>
@@ -996,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5520</v>
+        <v>5596.139681459835</v>
       </c>
       <c r="D3">
         <v>133567</v>
@@ -1118,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D4">
         <v>540000</v>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1362,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D6">
         <v>224000</v>
@@ -1484,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8820</v>
+        <v>8947.741473873051</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1606,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D8">
         <v>174208</v>
@@ -1728,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D9">
         <v>170000</v>
@@ -1850,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8320</v>
+        <v>10594.98659239237</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1972,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2216,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>480</v>
+        <v>471.181692645893</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2460,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2582,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D16">
         <v>248349</v>
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5610</v>
+        <v>5730.354774594881</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2948,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9040</v>
+        <v>9271.398233246389</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3070,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D20">
         <v>3600000</v>
@@ -3192,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D21">
         <v>340426</v>
@@ -3314,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9660</v>
+        <v>11286.24301624575</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3436,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3680,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3924,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4046,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D28">
         <v>248349</v>
@@ -4168,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4290,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D30">
         <v>3600000</v>
@@ -4412,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5930</v>
+        <v>5885.254624554112</v>
       </c>
       <c r="D31">
         <v>262080</v>
@@ -4534,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>9310</v>
+        <v>9477.887185090232</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4656,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D33">
         <v>340426</v>
@@ -4778,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4900,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5144,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3100</v>
+        <v>2999.422762626143</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5266,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5388,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5510,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1950</v>
+        <v>1982.009737844954</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5632,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5754,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5876,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>6280</v>
+        <v>6051.685746144485</v>
       </c>
       <c r="D43">
         <v>234650</v>
@@ -5998,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>10050</v>
+        <v>9690.869064532331</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6364,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>550</v>
+        <v>513.7390871590731</v>
       </c>
       <c r="D47">
         <v>252419</v>
@@ -6486,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>3320</v>
+        <v>3056.152683606517</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6608,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6730,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6852,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>1990</v>
+        <v>2000.792448761861</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6974,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7096,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7218,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>6640</v>
+        <v>6203.843262938323</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7340,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>10270</v>
+        <v>9693.722968944676</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7706,7 +7703,7 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>620</v>
+        <v>534.5063430177229</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7828,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7950,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D60">
         <v>2500000</v>
@@ -8072,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>6840</v>
+        <v>6255.426161047989</v>
       </c>
       <c r="D61">
         <v>2500000</v>
@@ -8194,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8316,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8438,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>1990</v>
+        <v>2025.814194788851</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8560,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8926,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9048,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9170,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>7230</v>
+        <v>6522.736799041846</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9292,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -9414,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9536,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2040</v>
+        <v>2067.29003376698</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9658,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -10024,7 +10021,7 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>3040</v>
+        <v>2425.561644739583</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10146,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10267,8 +10264,8 @@
       <c r="B79">
         <v>0</v>
       </c>
-      <c r="C79" t="s">
-        <v>119</v>
+      <c r="C79">
+        <v>6550.274372976741</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10384,13 +10381,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -10506,13 +10503,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3800</v>
+        <v>3242.636921959078</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10628,13 +10625,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2110</v>
+        <v>2111.193164269742</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10750,13 +10747,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10872,7 +10869,7 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10994,7 +10991,7 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>

--- a/output/mundubat.xlsx
+++ b/output/mundubat.xlsx
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>914.4454289880559</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>5596.139681459835</v>
       </c>
       <c r="D3">
-        <v>133567</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>953955</v>
@@ -1606,7 +1606,7 @@
         <v>1460.056109840828</v>
       </c>
       <c r="D8">
-        <v>174208</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1420772</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>937.175305459579</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2354.125986718473</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>973.1190116235886</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4046,7 +4046,7 @@
         <v>1939.33862702996</v>
       </c>
       <c r="D28">
-        <v>248349</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>355232</v>
@@ -4290,7 +4290,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D30">
-        <v>3600000</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>657071</v>
@@ -4656,7 +4656,7 @@
         <v>2024.117324382548</v>
       </c>
       <c r="D33">
-        <v>340426</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>298569</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6239,7 +6239,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>215248.5</v>
+        <v>1135764</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>632479</v>
+        <v>1589525</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>84675</v>
+        <v>478140</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>33545</v>
+        <v>340462</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>219314</v>
+        <v>518297</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>203666</v>
+        <v>507338</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7221,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>152201</v>
+        <v>1107936</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>106199.5</v>
+        <v>413882</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7459,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>524996.5</v>
+        <v>1377640</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7581,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>71245.5</v>
+        <v>1174248</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>98908</v>
+        <v>92174</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1031.276228639696</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8801,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>126273.835</v>
+        <v>219314</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -9051,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>475088.93</v>
+        <v>203666</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>147138.49</v>
+        <v>152201</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -9295,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>184673.5</v>
+        <v>632479</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>77907.955</v>
+        <v>215248.5</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>72764.895</v>
+        <v>33545</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>113</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>579.0880693780265</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>160736.37</v>
+        <v>98908</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9777,13 +9777,13 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1063.277878861239</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>64417.145</v>
+        <v>71245.5</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9899,13 +9899,13 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>311184.6</v>
+        <v>524996.5</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1060.229080452468</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -10997,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D85">
         <v>0</v>
